--- a/data_tables/Flow cytometry_depletion.xlsx
+++ b/data_tables/Flow cytometry_depletion.xlsx
@@ -1,32 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rickman\Documents\GitHub\R-graphs\data_tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miri\Documents\GitHub\R-graphs\data_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18445E7-904A-4B1D-A5B4-051FD9A8FB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB97F27-8696-4A2C-9853-3C87956BC5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{92C4E0DA-DD92-4D20-9961-4B73563276D0}"/>
+    <workbookView xWindow="6180" yWindow="3735" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{92C4E0DA-DD92-4D20-9961-4B73563276D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="34">
   <si>
     <t xml:space="preserve">CDNB </t>
   </si>
@@ -52,15 +61,6 @@
     <t>paired</t>
   </si>
   <si>
-    <t>redox</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
     <t>JG</t>
   </si>
   <si>
@@ -94,16 +94,58 @@
     <t>HC fraction</t>
   </si>
   <si>
-    <t>SS_C</t>
-  </si>
-  <si>
-    <t>SS_T</t>
+    <t>amiloride</t>
+  </si>
+  <si>
+    <t>bumetanide</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>treatment</t>
+  </si>
+  <si>
+    <t>CDNB_2</t>
+  </si>
+  <si>
+    <t>paired_2</t>
+  </si>
+  <si>
+    <t>FL1_2</t>
+  </si>
+  <si>
+    <t>HC fraction_2</t>
+  </si>
+  <si>
+    <t>FS height_2</t>
+  </si>
+  <si>
+    <t>FS height st.dev_2</t>
+  </si>
+  <si>
+    <t>SS_2</t>
+  </si>
+  <si>
+    <t>SS st. Dev_2</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>CDNB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -146,12 +188,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -167,7 +211,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -469,7 +513,7 @@
       <selection activeCell="G65" sqref="G65:G70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -517,7 +561,7 @@
         <v>157.01333333333301</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I2">
         <v>44888</v>
@@ -546,7 +590,7 @@
         <v>146.26333333333335</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I3">
         <v>44889</v>
@@ -575,7 +619,7 @@
         <v>143.78333333333333</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <v>44894</v>
@@ -604,7 +648,7 @@
         <v>157.32333333333335</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I5">
         <v>44897</v>
@@ -633,7 +677,7 @@
         <v>164.33666666666667</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I6">
         <v>44914</v>
@@ -662,7 +706,7 @@
         <v>144.01999999999998</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I7">
         <v>44914</v>
@@ -691,7 +735,7 @@
         <v>158.07666666666668</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I8">
         <v>44914</v>
@@ -720,7 +764,7 @@
         <v>147.285</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I9">
         <v>44911</v>
@@ -749,7 +793,7 @@
         <v>136.04</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I10">
         <v>44911</v>
@@ -778,7 +822,7 @@
         <v>144.64333333333332</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I11">
         <v>44914</v>
@@ -807,7 +851,7 @@
         <v>149.49333329999999</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I12">
         <v>44911</v>
@@ -836,7 +880,7 @@
         <v>138.42333333333332</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I13">
         <v>44911</v>
@@ -865,7 +909,7 @@
         <v>146.61666666666667</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I14">
         <v>44914</v>
@@ -894,7 +938,7 @@
         <v>135.96</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I15">
         <v>44908</v>
@@ -923,7 +967,7 @@
         <v>131.06333330000001</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I16">
         <v>44908</v>
@@ -952,7 +996,7 @@
         <v>146.28333330000001</v>
       </c>
       <c r="H17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I17">
         <v>44911</v>
@@ -981,7 +1025,7 @@
         <v>146.68666669999999</v>
       </c>
       <c r="H18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I18">
         <v>44908</v>
@@ -1010,7 +1054,7 @@
         <v>138.30333329999999</v>
       </c>
       <c r="H19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I19">
         <v>44908</v>
@@ -1039,7 +1083,7 @@
         <v>147.06</v>
       </c>
       <c r="H20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I20">
         <v>44911</v>
@@ -1068,7 +1112,7 @@
         <v>152.745</v>
       </c>
       <c r="H21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I21">
         <v>44917</v>
@@ -1097,7 +1141,7 @@
         <v>165.655</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I22">
         <v>44958</v>
@@ -1126,7 +1170,7 @@
         <v>158.12</v>
       </c>
       <c r="H23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I23">
         <v>44963</v>
@@ -1155,7 +1199,7 @@
         <v>167.44666666666669</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I24">
         <v>44963</v>
@@ -1184,7 +1228,7 @@
         <v>160.07000000000002</v>
       </c>
       <c r="H25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I25">
         <v>44967</v>
@@ -1213,7 +1257,7 @@
         <v>180.69999999999996</v>
       </c>
       <c r="H26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I26">
         <v>44970</v>
@@ -1242,7 +1286,7 @@
         <v>145.31666666666663</v>
       </c>
       <c r="H27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I27">
         <v>44971</v>
@@ -1274,7 +1318,7 @@
         <v>144.76183332666665</v>
       </c>
       <c r="H29" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1303,7 +1347,7 @@
         <v>150.86861109999995</v>
       </c>
       <c r="H30" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1332,7 +1376,7 @@
         <v>151.81809524285717</v>
       </c>
       <c r="H31" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1361,7 +1405,7 @@
         <v>165.655</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1390,7 +1434,7 @@
         <v>167.44666666666669</v>
       </c>
       <c r="H33" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1419,7 +1463,7 @@
         <v>160.07000000000002</v>
       </c>
       <c r="H34" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1468,7 +1512,7 @@
         <v>146.40666666666701</v>
       </c>
       <c r="H38" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I38">
         <v>44888</v>
@@ -1497,7 +1541,7 @@
         <v>134.90666666666667</v>
       </c>
       <c r="H39" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I39">
         <v>44889</v>
@@ -1526,7 +1570,7 @@
         <v>125.19666666666667</v>
       </c>
       <c r="H40" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I40">
         <v>44894</v>
@@ -1555,7 +1599,7 @@
         <v>150.00333333333333</v>
       </c>
       <c r="H41" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I41">
         <v>44897</v>
@@ -1584,7 +1628,7 @@
         <v>149.47999999999999</v>
       </c>
       <c r="H42" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I42">
         <v>44914</v>
@@ -1613,7 +1657,7 @@
         <v>148.56666666666663</v>
       </c>
       <c r="H43" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I43">
         <v>44914</v>
@@ -1642,7 +1686,7 @@
         <v>154.85666666666665</v>
       </c>
       <c r="H44" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I44">
         <v>44914</v>
@@ -1671,7 +1715,7 @@
         <v>129.94</v>
       </c>
       <c r="H45" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I45">
         <v>44911</v>
@@ -1700,7 +1744,7 @@
         <v>117.75333329999999</v>
       </c>
       <c r="H46" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I46">
         <v>44911</v>
@@ -1729,7 +1773,7 @@
         <v>109.145</v>
       </c>
       <c r="H47" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I47">
         <v>44914</v>
@@ -1758,7 +1802,7 @@
         <v>136.90666669999999</v>
       </c>
       <c r="H48" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I48">
         <v>44911</v>
@@ -1787,7 +1831,7 @@
         <v>132.67333333333332</v>
       </c>
       <c r="H49" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I49">
         <v>44911</v>
@@ -1816,7 +1860,7 @@
         <v>113.12666666666667</v>
       </c>
       <c r="H50" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I50">
         <v>44914</v>
@@ -1845,7 +1889,7 @@
         <v>101.13</v>
       </c>
       <c r="H51" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I51">
         <v>44908</v>
@@ -1874,7 +1918,7 @@
         <v>105.83333330000001</v>
       </c>
       <c r="H52" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I52">
         <v>44908</v>
@@ -1903,7 +1947,7 @@
         <v>132.14500000000001</v>
       </c>
       <c r="H53" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I53">
         <v>44911</v>
@@ -1932,7 +1976,7 @@
         <v>145.13</v>
       </c>
       <c r="H54" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I54">
         <v>44908</v>
@@ -1961,7 +2005,7 @@
         <v>140.96333329999999</v>
       </c>
       <c r="H55" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I55">
         <v>44908</v>
@@ -1990,7 +2034,7 @@
         <v>141.35</v>
       </c>
       <c r="H56" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I56">
         <v>44911</v>
@@ -2019,7 +2063,7 @@
         <v>152.55000000000001</v>
       </c>
       <c r="H57" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I57">
         <v>44917</v>
@@ -2048,7 +2092,7 @@
         <v>139.59</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I58">
         <v>44958</v>
@@ -2077,7 +2121,7 @@
         <v>159.5</v>
       </c>
       <c r="H59" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I59">
         <v>44963</v>
@@ -2106,7 +2150,7 @@
         <v>151.54333333333332</v>
       </c>
       <c r="H60" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I60">
         <v>44963</v>
@@ -2135,7 +2179,7 @@
         <v>148.92666666666668</v>
       </c>
       <c r="H61" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I61">
         <v>44967</v>
@@ -2164,7 +2208,7 @@
         <v>168.30333333333334</v>
       </c>
       <c r="H62" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I62">
         <v>44970</v>
@@ -2193,7 +2237,7 @@
         <v>154.66999999999999</v>
       </c>
       <c r="H63" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I63">
         <v>44971</v>
@@ -2363,430 +2407,538 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5FA687-EAEA-45CC-A7CC-435970B5F7FC}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L7"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" s="1">
+        <v>2.7136666666666667</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.67382052481920618</v>
+      </c>
+      <c r="E2" s="1">
+        <v>470.67299999999994</v>
+      </c>
+      <c r="F2" s="1">
+        <v>100.72283334333331</v>
+      </c>
+      <c r="G2">
+        <v>254.1996666666667</v>
+      </c>
+      <c r="H2">
+        <v>144.76183332666665</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2" s="2">
+        <v>3.0233333330000001</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="2">
+        <v>445.0133333</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>289.14666670000003</v>
+      </c>
+      <c r="R2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.1097222222222221</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.89542696699390367</v>
+      </c>
+      <c r="E3" s="1">
+        <v>465.44527777777785</v>
+      </c>
+      <c r="F3" s="1">
+        <v>106.4858333388889</v>
+      </c>
+      <c r="G3">
+        <v>257.5744444444444</v>
+      </c>
+      <c r="H3">
+        <v>150.86861109999995</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3" s="2">
+        <v>2.6066666669999998</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="2">
+        <v>444.04333329999997</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>287.51</v>
+      </c>
+      <c r="R3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.394285714285715</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.76100872220825466</v>
+      </c>
+      <c r="E4" s="1">
+        <v>454.86214285714283</v>
+      </c>
+      <c r="F4" s="1">
+        <v>100.74952380000001</v>
+      </c>
+      <c r="G4">
+        <v>247.15476190476195</v>
+      </c>
+      <c r="H4">
+        <v>151.81809524285717</v>
+      </c>
+      <c r="J4" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4" s="2">
+        <v>2.6166666670000001</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="2">
+        <v>434.33666670000002</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>289.61333330000002</v>
+      </c>
+      <c r="R4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.73168271897534165</v>
+      </c>
+      <c r="E5" s="1">
+        <v>461.87</v>
+      </c>
+      <c r="F5" s="1">
+        <v>97.894999999999996</v>
+      </c>
+      <c r="G5">
+        <v>277.83499999999998</v>
+      </c>
+      <c r="H5">
+        <v>165.655</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5" s="3">
+        <v>2.79</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="3">
+        <v>433.96666670000002</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>232.15666669999999</v>
+      </c>
+      <c r="R5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.86</v>
+      </c>
+      <c r="D6">
+        <v>0.80109818751955642</v>
+      </c>
+      <c r="E6" s="1">
+        <v>460.82333333333332</v>
+      </c>
+      <c r="F6" s="1">
+        <v>90.77</v>
+      </c>
+      <c r="G6">
+        <v>291.72000000000003</v>
+      </c>
+      <c r="H6">
+        <v>167.44666666666669</v>
+      </c>
+      <c r="J6" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6" s="2">
+        <v>2.6466666669999999</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="2">
+        <v>432.52</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>234.28</v>
+      </c>
+      <c r="R6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>2.3233333333333337</v>
+      </c>
+      <c r="D7">
+        <v>0.95482130815913691</v>
+      </c>
+      <c r="E7">
+        <v>453.16333333333336</v>
+      </c>
+      <c r="F7">
+        <v>96.913333333333341</v>
+      </c>
+      <c r="G7">
+        <v>260.66333333333336</v>
+      </c>
+      <c r="H7">
+        <v>160.07000000000002</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7" s="2">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="2">
+        <v>429.72500000000002</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>227.535</v>
+      </c>
+      <c r="R7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.6533333333333333</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.85466565416345508</v>
+      </c>
+      <c r="E8" s="1">
+        <v>467.6538333333333</v>
+      </c>
+      <c r="F8" s="1">
+        <v>98.911499996666663</v>
+      </c>
+      <c r="G8">
+        <v>227.19250000000002</v>
+      </c>
+      <c r="H8">
+        <v>139.74199999000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.8602777777777781</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.1076945946479133</v>
+      </c>
+      <c r="E9" s="1">
+        <v>455.91277777777776</v>
+      </c>
+      <c r="F9" s="1">
+        <v>103.0799999888889</v>
+      </c>
+      <c r="G9">
+        <v>221.57500000000002</v>
+      </c>
+      <c r="H9">
+        <v>140.2675000055556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.1183333333333332</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.1402635880354659</v>
+      </c>
+      <c r="E10" s="1">
+        <v>448.21999999999986</v>
+      </c>
+      <c r="F10" s="1">
+        <v>95.066666670952372</v>
+      </c>
+      <c r="G10">
+        <v>213.16714285714286</v>
+      </c>
+      <c r="H10">
+        <v>130.21595238095239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.98998891401113986</v>
+      </c>
+      <c r="E11" s="1">
+        <v>461.08</v>
+      </c>
+      <c r="F11" s="1">
+        <v>84.713333333333324</v>
+      </c>
+      <c r="G11">
+        <v>228.91</v>
+      </c>
+      <c r="H11">
+        <v>139.59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2.7136666666666667</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.67382052481920618</v>
-      </c>
-      <c r="F2" s="1">
-        <v>470.67299999999994</v>
-      </c>
-      <c r="G2" s="1">
-        <v>100.72283334333331</v>
-      </c>
-      <c r="H2">
-        <v>254.1996666666667</v>
-      </c>
-      <c r="I2">
-        <v>144.76183332666665</v>
-      </c>
-      <c r="K2">
-        <v>254.1996666666667</v>
-      </c>
-      <c r="L2">
-        <v>227.19250000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3.1097222222222221</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.89542696699390367</v>
-      </c>
-      <c r="F3" s="1">
-        <v>465.44527777777785</v>
-      </c>
-      <c r="G3" s="1">
-        <v>106.4858333388889</v>
-      </c>
-      <c r="H3">
-        <v>257.5744444444444</v>
-      </c>
-      <c r="I3">
-        <v>150.86861109999995</v>
-      </c>
-      <c r="K3">
-        <v>257.5744444444444</v>
-      </c>
-      <c r="L3">
-        <v>221.57500000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3.394285714285715</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.76100872220825466</v>
-      </c>
-      <c r="F4" s="1">
-        <v>454.86214285714283</v>
-      </c>
-      <c r="G4" s="1">
-        <v>100.74952380000001</v>
-      </c>
-      <c r="H4">
-        <v>247.15476190476195</v>
-      </c>
-      <c r="I4">
-        <v>151.81809524285717</v>
-      </c>
-      <c r="K4">
-        <v>247.15476190476195</v>
-      </c>
-      <c r="L4">
-        <v>213.16714285714286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C12" s="1">
         <v>3.14</v>
       </c>
-      <c r="E5" s="1">
-        <v>0.73168271897534165</v>
-      </c>
-      <c r="F5" s="1">
-        <v>461.87</v>
-      </c>
-      <c r="G5" s="1">
-        <v>97.894999999999996</v>
-      </c>
-      <c r="H5">
-        <v>277.83499999999998</v>
-      </c>
-      <c r="I5">
-        <v>165.655</v>
-      </c>
-      <c r="K5">
-        <v>277.83499999999998</v>
-      </c>
-      <c r="L5">
-        <v>228.91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3.86</v>
-      </c>
-      <c r="E6">
-        <v>0.80109818751955642</v>
-      </c>
-      <c r="F6" s="1">
-        <v>460.82333333333332</v>
-      </c>
-      <c r="G6" s="1">
-        <v>90.77</v>
-      </c>
-      <c r="H6">
-        <v>291.72000000000003</v>
-      </c>
-      <c r="I6">
-        <v>167.44666666666669</v>
-      </c>
-      <c r="K6">
-        <v>291.72000000000003</v>
-      </c>
-      <c r="L6">
+      <c r="D12" s="1">
+        <v>1.0163323423670227</v>
+      </c>
+      <c r="E12" s="1">
+        <v>452.82333333333332</v>
+      </c>
+      <c r="F12" s="1">
+        <v>90.40666666666668</v>
+      </c>
+      <c r="G12">
         <v>241.20666666666668</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
+      <c r="H12">
+        <v>151.54333333333332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13">
         <v>6</v>
       </c>
-      <c r="D7">
-        <v>2.3233333333333337</v>
-      </c>
-      <c r="E7">
-        <v>0.95482130815913691</v>
-      </c>
-      <c r="F7">
-        <v>453.16333333333336</v>
-      </c>
-      <c r="G7">
-        <v>96.913333333333341</v>
-      </c>
-      <c r="H7">
-        <v>260.66333333333336</v>
-      </c>
-      <c r="I7">
-        <v>160.07000000000002</v>
-      </c>
-      <c r="K7">
-        <v>260.66333333333336</v>
-      </c>
-      <c r="L7">
+      <c r="C13">
+        <v>2.17</v>
+      </c>
+      <c r="D13">
+        <v>1.4491771965414821</v>
+      </c>
+      <c r="E13">
+        <v>450.53</v>
+      </c>
+      <c r="F13">
+        <v>96.12</v>
+      </c>
+      <c r="G13">
         <v>234.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>0.75</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2.6533333333333333</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.85466565416345508</v>
-      </c>
-      <c r="F8" s="1">
-        <v>467.6538333333333</v>
-      </c>
-      <c r="G8" s="1">
-        <v>98.911499996666663</v>
-      </c>
-      <c r="H8">
-        <v>227.19250000000002</v>
-      </c>
-      <c r="I8">
-        <v>139.74199999000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>0.75</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2.8602777777777781</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1.1076945946479133</v>
-      </c>
-      <c r="F9" s="1">
-        <v>455.91277777777776</v>
-      </c>
-      <c r="G9" s="1">
-        <v>103.0799999888889</v>
-      </c>
-      <c r="H9">
-        <v>221.57500000000002</v>
-      </c>
-      <c r="I9">
-        <v>140.2675000055556</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>0.75</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3.1183333333333332</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1.1402635880354659</v>
-      </c>
-      <c r="F10" s="1">
-        <v>448.21999999999986</v>
-      </c>
-      <c r="G10" s="1">
-        <v>95.066666670952372</v>
-      </c>
-      <c r="H10">
-        <v>213.16714285714286</v>
-      </c>
-      <c r="I10">
-        <v>130.21595238095239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.75</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3.25</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.98998891401113986</v>
-      </c>
-      <c r="F11" s="1">
-        <v>461.08</v>
-      </c>
-      <c r="G11" s="1">
-        <v>84.713333333333324</v>
-      </c>
-      <c r="H11">
-        <v>228.91</v>
-      </c>
-      <c r="I11">
-        <v>139.59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0.75</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3.14</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1.0163323423670227</v>
-      </c>
-      <c r="F12" s="1">
-        <v>452.82333333333332</v>
-      </c>
-      <c r="G12" s="1">
-        <v>90.40666666666668</v>
-      </c>
-      <c r="H12">
-        <v>241.20666666666668</v>
-      </c>
-      <c r="I12">
-        <v>151.54333333333332</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>0.75</v>
-      </c>
-      <c r="C13">
-        <v>6</v>
-      </c>
-      <c r="D13">
-        <v>2.17</v>
-      </c>
-      <c r="E13">
-        <v>1.4491771965414821</v>
-      </c>
-      <c r="F13">
-        <v>450.53</v>
-      </c>
-      <c r="G13">
-        <v>96.12</v>
-      </c>
       <c r="H13">
-        <v>234.25</v>
-      </c>
-      <c r="I13">
         <v>148.92666666666668</v>
       </c>
     </row>
